--- a/USP797.xlsx
+++ b/USP797.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="24915" windowHeight="12090" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="24915" windowHeight="12090" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="cleaning_summary" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="120">
   <si>
     <t>Activities in controlled environments</t>
   </si>
@@ -177,9 +177,6 @@
     <t>Air dry/wipe dry</t>
   </si>
   <si>
-    <t>Dwell time: 10 minutes (fungicidal), rinse with 70% EtOH/IPA to remove residue</t>
-  </si>
-  <si>
     <t>package size</t>
   </si>
   <si>
@@ -361,6 +358,45 @@
   </si>
   <si>
     <t>room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dwell time: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fungi </t>
+  </si>
+  <si>
+    <t>Bacteria</t>
+  </si>
+  <si>
+    <t>Viruses</t>
+  </si>
+  <si>
+    <t>1 min for non-porous; 10 min for porous surfaces</t>
+  </si>
+  <si>
+    <t>2 min</t>
+  </si>
+  <si>
+    <t>Spores</t>
+  </si>
+  <si>
+    <t>3 min</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>5 min</t>
+  </si>
+  <si>
+    <t>&lt;-- PEC</t>
+  </si>
+  <si>
+    <t>&lt;-- Buffer Room</t>
+  </si>
+  <si>
+    <t>&lt;-- Ante Room</t>
   </si>
 </sst>
 </file>
@@ -515,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -564,9 +600,6 @@
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -574,43 +607,20 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -658,13 +668,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -678,6 +681,45 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -744,17 +786,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B3:F24" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="7" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B3:F24" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
   <autoFilter ref="B3:F24"/>
   <sortState ref="B4:F24">
     <sortCondition ref="E3:E24"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="item_number" dataDxfId="6"/>
-    <tableColumn id="2" name="description" dataDxfId="5"/>
-    <tableColumn id="3" name="package size" dataDxfId="4"/>
-    <tableColumn id="4" name="category" dataDxfId="3"/>
-    <tableColumn id="5" name="subcategory" dataDxfId="2"/>
+    <tableColumn id="1" name="item_number" dataDxfId="4"/>
+    <tableColumn id="2" name="description" dataDxfId="3"/>
+    <tableColumn id="3" name="package size" dataDxfId="2"/>
+    <tableColumn id="4" name="category" dataDxfId="1"/>
+    <tableColumn id="5" name="subcategory" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1257,10 +1299,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E10"/>
+  <dimension ref="B3:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,17 +1312,17 @@
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="22"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1294,7 +1336,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="20">
         <v>3</v>
       </c>
@@ -1308,7 +1350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="20">
         <v>4</v>
       </c>
@@ -1322,7 +1364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="20">
         <v>5</v>
       </c>
@@ -1335,8 +1377,11 @@
       <c r="E7" s="20">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="20">
         <v>6</v>
       </c>
@@ -1350,7 +1395,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="20">
         <v>7</v>
       </c>
@@ -1363,8 +1408,11 @@
       <c r="E9" s="21">
         <v>10000</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="20">
         <v>8</v>
       </c>
@@ -1376,6 +1424,9 @@
       </c>
       <c r="E10" s="21">
         <v>100000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1390,45 +1441,66 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C16"/>
+  <dimension ref="B2:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="27" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="27" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="27" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="27" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1</v>
       </c>
@@ -1436,7 +1508,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>2</v>
       </c>
@@ -1444,7 +1516,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>3</v>
       </c>
@@ -1452,7 +1524,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>4</v>
       </c>
@@ -1460,12 +1532,57 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>46</v>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:G7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1474,7 +1591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1486,377 +1603,377 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="25" t="s">
+      <c r="D17" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="23" t="s">
+      <c r="F17" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D18" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="24" t="s">
+      <c r="E18" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="24" t="s">
+      <c r="C20" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="24" t="s">
+      <c r="E20" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="24" t="s">
+    </row>
+    <row r="21" spans="2:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C21" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="24" t="s">
+      <c r="D21" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C22" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="24" t="s">
+      <c r="D22" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C23" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="24" t="s">
+      <c r="D23" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C24" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>107</v>
+      <c r="D24" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
